--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H2">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I2">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J2">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5243966666666667</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N2">
         <v>1.57319</v>
       </c>
       <c r="O2">
-        <v>0.5208326091224419</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P2">
-        <v>0.5208326091224418</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q2">
-        <v>0.02851301995666667</v>
+        <v>0.02896872066</v>
       </c>
       <c r="R2">
-        <v>0.25661717961</v>
+        <v>0.26071848594</v>
       </c>
       <c r="S2">
-        <v>0.003401045207964731</v>
+        <v>0.006305290874850564</v>
       </c>
       <c r="T2">
-        <v>0.00340104520796473</v>
+        <v>0.006305290874850563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H3">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I3">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J3">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2766006666666667</v>
+        <v>0.045395</v>
       </c>
       <c r="N3">
-        <v>0.829802</v>
+        <v>0.136185</v>
       </c>
       <c r="O3">
-        <v>0.2747207525569197</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P3">
-        <v>0.2747207525569196</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q3">
-        <v>0.01503960804866667</v>
+        <v>0.00250771059</v>
       </c>
       <c r="R3">
-        <v>0.135356472438</v>
+        <v>0.02256939531</v>
       </c>
       <c r="S3">
-        <v>0.001793930876537195</v>
+        <v>0.0005458247495798499</v>
       </c>
       <c r="T3">
-        <v>0.001793930876537194</v>
+        <v>0.0005458247495798499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.567211333333334</v>
+      </c>
+      <c r="H4">
+        <v>4.701634</v>
+      </c>
+      <c r="I4">
+        <v>0.1943656285540788</v>
+      </c>
+      <c r="J4">
+        <v>0.1943656285540788</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.054373</v>
-      </c>
-      <c r="H4">
-        <v>0.163119</v>
-      </c>
-      <c r="I4">
-        <v>0.006530015879180835</v>
-      </c>
-      <c r="J4">
-        <v>0.006530015879180836</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.02090733333333333</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N4">
-        <v>0.062722</v>
+        <v>1.57319</v>
       </c>
       <c r="O4">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P4">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q4">
-        <v>0.001136794435333333</v>
+        <v>0.8218403991622223</v>
       </c>
       <c r="R4">
-        <v>0.010231149918</v>
+        <v>7.39656359246</v>
       </c>
       <c r="S4">
-        <v>0.000135597326155114</v>
+        <v>0.1788806219729382</v>
       </c>
       <c r="T4">
-        <v>0.000135597326155114</v>
+        <v>0.1788806219729382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.054373</v>
+        <v>1.567211333333334</v>
       </c>
       <c r="H5">
-        <v>0.163119</v>
+        <v>4.701634</v>
       </c>
       <c r="I5">
-        <v>0.006530015879180835</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J5">
-        <v>0.006530015879180836</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1849383333333333</v>
+        <v>0.045395</v>
       </c>
       <c r="N5">
-        <v>0.5548149999999999</v>
+        <v>0.136185</v>
       </c>
       <c r="O5">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P5">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q5">
-        <v>0.01005565199833333</v>
+        <v>0.07114355847666667</v>
       </c>
       <c r="R5">
-        <v>0.090500867985</v>
+        <v>0.64029202629</v>
       </c>
       <c r="S5">
-        <v>0.001199442468523797</v>
+        <v>0.01548500658114061</v>
       </c>
       <c r="T5">
-        <v>0.001199442468523797</v>
+        <v>0.0154850065811406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.567211333333334</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H6">
-        <v>4.701634</v>
+        <v>0.917708</v>
       </c>
       <c r="I6">
-        <v>0.1882168519798215</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J6">
-        <v>0.1882168519798215</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5243966666666667</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N6">
         <v>1.57319</v>
       </c>
       <c r="O6">
-        <v>0.5208326091224419</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P6">
-        <v>0.5208326091224418</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q6">
-        <v>0.8218403991622224</v>
+        <v>0.1604143387244444</v>
       </c>
       <c r="R6">
-        <v>7.396563592460001</v>
+        <v>1.44372904852</v>
       </c>
       <c r="S6">
-        <v>0.09802947409746289</v>
+        <v>0.03491555868226688</v>
       </c>
       <c r="T6">
-        <v>0.09802947409746288</v>
+        <v>0.03491555868226687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.567211333333334</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H7">
-        <v>4.701634</v>
+        <v>0.917708</v>
       </c>
       <c r="I7">
-        <v>0.1882168519798215</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J7">
-        <v>0.1882168519798215</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,33 +871,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2766006666666667</v>
+        <v>0.045395</v>
       </c>
       <c r="N7">
-        <v>0.829802</v>
+        <v>0.136185</v>
       </c>
       <c r="O7">
-        <v>0.2747207525569197</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P7">
-        <v>0.2747207525569196</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q7">
-        <v>0.4334916996075556</v>
+        <v>0.01388645155333333</v>
       </c>
       <c r="R7">
-        <v>3.901425296468001</v>
+        <v>0.12497806398</v>
       </c>
       <c r="S7">
-        <v>0.05170707521979093</v>
+        <v>0.003022505456521155</v>
       </c>
       <c r="T7">
-        <v>0.05170707521979093</v>
+        <v>0.003022505456521154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.567211333333334</v>
+        <v>0.03313</v>
       </c>
       <c r="H8">
-        <v>4.701634</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I8">
-        <v>0.1882168519798215</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J8">
-        <v>0.1882168519798215</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02090733333333333</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N8">
-        <v>0.062722</v>
+        <v>1.57319</v>
       </c>
       <c r="O8">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P8">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q8">
-        <v>0.03276620974977778</v>
+        <v>0.01737326156666667</v>
       </c>
       <c r="R8">
-        <v>0.294895887748</v>
+        <v>0.1563593541</v>
       </c>
       <c r="S8">
-        <v>0.00390836750445977</v>
+        <v>0.003781439605441497</v>
       </c>
       <c r="T8">
-        <v>0.00390836750445977</v>
+        <v>0.003781439605441497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.567211333333334</v>
+        <v>0.03313</v>
       </c>
       <c r="H9">
-        <v>4.701634</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I9">
-        <v>0.1882168519798215</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J9">
-        <v>0.1882168519798215</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1849383333333333</v>
+        <v>0.045395</v>
       </c>
       <c r="N9">
-        <v>0.5548149999999999</v>
+        <v>0.136185</v>
       </c>
       <c r="O9">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P9">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q9">
-        <v>0.2898374519677778</v>
+        <v>0.00150393635</v>
       </c>
       <c r="R9">
-        <v>2.60853706771</v>
+        <v>0.01353542715</v>
       </c>
       <c r="S9">
-        <v>0.03457193515810796</v>
+        <v>0.0003273446644506069</v>
       </c>
       <c r="T9">
-        <v>0.03457193515810796</v>
+        <v>0.0003273446644506069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.849563</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H10">
-        <v>2.548689</v>
+        <v>16.726732</v>
       </c>
       <c r="I10">
-        <v>0.1020296816501666</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J10">
-        <v>0.1020296816501666</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5243966666666667</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N10">
         <v>1.57319</v>
       </c>
       <c r="O10">
-        <v>0.5208326091224419</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P10">
-        <v>0.5208326091224418</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q10">
-        <v>0.4455080053233333</v>
+        <v>2.923814168342222</v>
       </c>
       <c r="R10">
-        <v>4.00957204791</v>
+        <v>26.31432751508</v>
       </c>
       <c r="S10">
-        <v>0.05314038530178838</v>
+        <v>0.6363932674756579</v>
       </c>
       <c r="T10">
-        <v>0.05314038530178838</v>
+        <v>0.6363932674756579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.849563</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H11">
-        <v>2.548689</v>
+        <v>16.726732</v>
       </c>
       <c r="I11">
-        <v>0.1020296816501666</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J11">
-        <v>0.1020296816501666</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2766006666666667</v>
+        <v>0.045395</v>
       </c>
       <c r="N11">
-        <v>0.829802</v>
+        <v>0.136185</v>
       </c>
       <c r="O11">
-        <v>0.2747207525569197</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P11">
-        <v>0.2747207525569196</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q11">
-        <v>0.2349896921753333</v>
+        <v>0.2531033330466666</v>
       </c>
       <c r="R11">
-        <v>2.114907229578</v>
+        <v>2.27792999742</v>
       </c>
       <c r="S11">
-        <v>0.0280296709260767</v>
+        <v>0.05509011443701808</v>
       </c>
       <c r="T11">
-        <v>0.0280296709260767</v>
+        <v>0.05509011443701808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.849563</v>
+        <v>0.526149</v>
       </c>
       <c r="H12">
-        <v>2.548689</v>
+        <v>1.578447</v>
       </c>
       <c r="I12">
-        <v>0.1020296816501666</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J12">
-        <v>0.1020296816501666</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.02090733333333333</v>
+        <v>0.5243966666666666</v>
       </c>
       <c r="N12">
-        <v>0.062722</v>
+        <v>1.57319</v>
       </c>
       <c r="O12">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645339</v>
       </c>
       <c r="P12">
-        <v>0.0207652368177892</v>
+        <v>0.9203305301645338</v>
       </c>
       <c r="Q12">
-        <v>0.01776209682866666</v>
+        <v>0.2759107817699999</v>
       </c>
       <c r="R12">
-        <v>0.159858871458</v>
+        <v>2.48319703593</v>
       </c>
       <c r="S12">
-        <v>0.00211867050190935</v>
+        <v>0.06005435155337876</v>
       </c>
       <c r="T12">
-        <v>0.00211867050190935</v>
+        <v>0.06005435155337874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.849563</v>
+        <v>0.526149</v>
       </c>
       <c r="H13">
-        <v>2.548689</v>
+        <v>1.578447</v>
       </c>
       <c r="I13">
-        <v>0.1020296816501666</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J13">
-        <v>0.1020296816501666</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,772 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1849383333333333</v>
+        <v>0.045395</v>
       </c>
       <c r="N13">
-        <v>0.5548149999999999</v>
+        <v>0.136185</v>
       </c>
       <c r="O13">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="P13">
-        <v>0.1836814015028493</v>
+        <v>0.07966946983546619</v>
       </c>
       <c r="Q13">
-        <v>0.1571167652816667</v>
+        <v>0.023884533855</v>
       </c>
       <c r="R13">
-        <v>1.414050887535</v>
+        <v>0.214960804695</v>
       </c>
       <c r="S13">
-        <v>0.01874095492039215</v>
+        <v>0.005198673946755882</v>
       </c>
       <c r="T13">
-        <v>0.01874095492039215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.115704</v>
-      </c>
-      <c r="H14">
-        <v>0.347112</v>
-      </c>
-      <c r="I14">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="J14">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.5243966666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.57319</v>
-      </c>
-      <c r="O14">
-        <v>0.5208326091224419</v>
-      </c>
-      <c r="P14">
-        <v>0.5208326091224418</v>
-      </c>
-      <c r="Q14">
-        <v>0.06067479192</v>
-      </c>
-      <c r="R14">
-        <v>0.54607312728</v>
-      </c>
-      <c r="S14">
-        <v>0.00723731511489804</v>
-      </c>
-      <c r="T14">
-        <v>0.007237315114898039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.115704</v>
-      </c>
-      <c r="H15">
-        <v>0.347112</v>
-      </c>
-      <c r="I15">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="J15">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.2766006666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.829802</v>
-      </c>
-      <c r="O15">
-        <v>0.2747207525569197</v>
-      </c>
-      <c r="P15">
-        <v>0.2747207525569196</v>
-      </c>
-      <c r="Q15">
-        <v>0.032003803536</v>
-      </c>
-      <c r="R15">
-        <v>0.288034231824</v>
-      </c>
-      <c r="S15">
-        <v>0.003817427365399362</v>
-      </c>
-      <c r="T15">
-        <v>0.003817427365399362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.115704</v>
-      </c>
-      <c r="H16">
-        <v>0.347112</v>
-      </c>
-      <c r="I16">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="J16">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.02090733333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.062722</v>
-      </c>
-      <c r="O16">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="P16">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="Q16">
-        <v>0.002419062096</v>
-      </c>
-      <c r="R16">
-        <v>0.021771558864</v>
-      </c>
-      <c r="S16">
-        <v>0.0002885467608086975</v>
-      </c>
-      <c r="T16">
-        <v>0.0002885467608086975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.115704</v>
-      </c>
-      <c r="H17">
-        <v>0.347112</v>
-      </c>
-      <c r="I17">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="J17">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1849383333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.5548149999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="P17">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="Q17">
-        <v>0.02139810491999999</v>
-      </c>
-      <c r="R17">
-        <v>0.19258294428</v>
-      </c>
-      <c r="S17">
-        <v>0.002552375101209743</v>
-      </c>
-      <c r="T17">
-        <v>0.002552375101209743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>4.016919666666666</v>
-      </c>
-      <c r="H18">
-        <v>12.050759</v>
-      </c>
-      <c r="I18">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="J18">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.5243966666666667</v>
-      </c>
-      <c r="N18">
-        <v>1.57319</v>
-      </c>
-      <c r="O18">
-        <v>0.5208326091224419</v>
-      </c>
-      <c r="P18">
-        <v>0.5208326091224418</v>
-      </c>
-      <c r="Q18">
-        <v>2.106459283467778</v>
-      </c>
-      <c r="R18">
-        <v>18.95813355121</v>
-      </c>
-      <c r="S18">
-        <v>0.2512593637116942</v>
-      </c>
-      <c r="T18">
-        <v>0.2512593637116942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.016919666666666</v>
-      </c>
-      <c r="H19">
-        <v>12.050759</v>
-      </c>
-      <c r="I19">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="J19">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.2766006666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.829802</v>
-      </c>
-      <c r="O19">
-        <v>0.2747207525569197</v>
-      </c>
-      <c r="P19">
-        <v>0.2747207525569196</v>
-      </c>
-      <c r="Q19">
-        <v>1.111082657746444</v>
-      </c>
-      <c r="R19">
-        <v>9.999743919718</v>
-      </c>
-      <c r="S19">
-        <v>0.1325304143343723</v>
-      </c>
-      <c r="T19">
-        <v>0.1325304143343723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>4.016919666666666</v>
-      </c>
-      <c r="H20">
-        <v>12.050759</v>
-      </c>
-      <c r="I20">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="J20">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.02090733333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.062722</v>
-      </c>
-      <c r="O20">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="P20">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="Q20">
-        <v>0.08398307844422222</v>
-      </c>
-      <c r="R20">
-        <v>0.755847705998</v>
-      </c>
-      <c r="S20">
-        <v>0.01001753749434263</v>
-      </c>
-      <c r="T20">
-        <v>0.01001753749434263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>4.016919666666666</v>
-      </c>
-      <c r="H21">
-        <v>12.050759</v>
-      </c>
-      <c r="I21">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="J21">
-        <v>0.4824186491223055</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1849383333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.5548149999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="P21">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="Q21">
-        <v>0.7428824282872221</v>
-      </c>
-      <c r="R21">
-        <v>6.685941854584999</v>
-      </c>
-      <c r="S21">
-        <v>0.08861133358189639</v>
-      </c>
-      <c r="T21">
-        <v>0.08861133358189639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.722855</v>
-      </c>
-      <c r="H22">
-        <v>5.168565</v>
-      </c>
-      <c r="I22">
-        <v>0.2069091370262096</v>
-      </c>
-      <c r="J22">
-        <v>0.2069091370262097</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.5243966666666667</v>
-      </c>
-      <c r="N22">
-        <v>1.57319</v>
-      </c>
-      <c r="O22">
-        <v>0.5208326091224419</v>
-      </c>
-      <c r="P22">
-        <v>0.5208326091224418</v>
-      </c>
-      <c r="Q22">
-        <v>0.9034594191500002</v>
-      </c>
-      <c r="R22">
-        <v>8.13113477235</v>
-      </c>
-      <c r="S22">
-        <v>0.1077650256886336</v>
-      </c>
-      <c r="T22">
-        <v>0.1077650256886336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.722855</v>
-      </c>
-      <c r="H23">
-        <v>5.168565</v>
-      </c>
-      <c r="I23">
-        <v>0.2069091370262096</v>
-      </c>
-      <c r="J23">
-        <v>0.2069091370262097</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.2766006666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.829802</v>
-      </c>
-      <c r="O23">
-        <v>0.2747207525569197</v>
-      </c>
-      <c r="P23">
-        <v>0.2747207525569196</v>
-      </c>
-      <c r="Q23">
-        <v>0.47654284157</v>
-      </c>
-      <c r="R23">
-        <v>4.28888557413</v>
-      </c>
-      <c r="S23">
-        <v>0.05684223383474313</v>
-      </c>
-      <c r="T23">
-        <v>0.05684223383474312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.722855</v>
-      </c>
-      <c r="H24">
-        <v>5.168565</v>
-      </c>
-      <c r="I24">
-        <v>0.2069091370262096</v>
-      </c>
-      <c r="J24">
-        <v>0.2069091370262097</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02090733333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.062722</v>
-      </c>
-      <c r="O24">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="P24">
-        <v>0.0207652368177892</v>
-      </c>
-      <c r="Q24">
-        <v>0.03602030377</v>
-      </c>
-      <c r="R24">
-        <v>0.32418273393</v>
-      </c>
-      <c r="S24">
-        <v>0.00429651723011364</v>
-      </c>
-      <c r="T24">
-        <v>0.00429651723011364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.722855</v>
-      </c>
-      <c r="H25">
-        <v>5.168565</v>
-      </c>
-      <c r="I25">
-        <v>0.2069091370262096</v>
-      </c>
-      <c r="J25">
-        <v>0.2069091370262097</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1849383333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.5548149999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="P25">
-        <v>0.1836814015028493</v>
-      </c>
-      <c r="Q25">
-        <v>0.318621932275</v>
-      </c>
-      <c r="R25">
-        <v>2.867597390475</v>
-      </c>
-      <c r="S25">
-        <v>0.03800536027271928</v>
-      </c>
-      <c r="T25">
-        <v>0.03800536027271928</v>
+        <v>0.005198673946755881</v>
       </c>
     </row>
   </sheetData>
